--- a/biology/Zoologie/Conus_poulosi/Conus_poulosi.xlsx
+++ b/biology/Zoologie/Conus_poulosi/Conus_poulosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus poulosi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large de la Colombie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Golfo de Morrosquillo sur la côte caribéenne de la Colombie au Golfo Triste au Venezuela. Les menaces qui pèsent sur cette espèce sont inconnues Elle est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Golfo de Morrosquillo sur la côte caribéenne de la Colombie au Golfo Triste au Venezuela. Les menaces qui pèsent sur cette espèce sont inconnues Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_poulosi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_poulosi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus poulosi a été décrite pour la première fois en 1993 par le malacologiste américain Edward James Petuch (d)[2] dans « La Conchiglia »[3],[4].
-Synonymes
-Attenuiconus poulosi (Petuch, 1993) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus poulosi a été décrite pour la première fois en 1993 par le malacologiste américain Edward James Petuch (d) dans « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_poulosi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_poulosi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Attenuiconus poulosi (Petuch, 1993) · non accepté
 Conus (Attenuiconus) poulosi Petuch, 1993 · appellation alternative
 Dauciconus poulosi (Petuch, 1993) · non accepté</t>
         </is>
